--- a/wardley/data/Wardley.xlsx
+++ b/wardley/data/Wardley.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rnadorp/Documents/Prive/D3/wardley/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FC52E2-81AE-AF41-A94B-814B3BB96A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71842FC-E348-2D42-AAAE-72A616DE3FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="195">
   <si>
     <t>Description</t>
   </si>
@@ -187,9 +187,6 @@
     <t>Dashboard</t>
   </si>
   <si>
-    <t>StoryLine</t>
-  </si>
-  <si>
     <t>Sort</t>
   </si>
   <si>
@@ -428,6 +425,228 @@
   </si>
   <si>
     <t>Bubble size represents volume, usage or amount from the perspective of the supplier.</t>
+  </si>
+  <si>
+    <t>StoryLine_nl</t>
+  </si>
+  <si>
+    <t>StoryLine_en</t>
+  </si>
+  <si>
+    <t>Y-Axis: Waardeketen</t>
+  </si>
+  <si>
+    <t>besluitvorming in een organisatie te ondersteunen.</t>
+  </si>
+  <si>
+    <t>De waardeketen dimensie geeft de zichtbaarheid aan van een component.</t>
+  </si>
+  <si>
+    <t>Hoe zichtbaarder een component voor de klant, hoe groter de waarde voor de klant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Een wardley map heeft 2 dimensies: waardeketen op de y-as, evolutie op de x-as. </t>
+  </si>
+  <si>
+    <t>Componenten worden op de map afgebeeld op basis van deze twee dimensies.</t>
+  </si>
+  <si>
+    <t>Components are plotted on the map based on these 2 dimensions.</t>
+  </si>
+  <si>
+    <t>Componenten kunnen afhankelijk zijn van andere componenten.</t>
+  </si>
+  <si>
+    <t>X-Axis: Evolutie.</t>
+  </si>
+  <si>
+    <t>This is one of the key insights that a Wardley map provides.</t>
+  </si>
+  <si>
+    <t>Dit is een van de primaire inzichten die een Wardley map geeft.</t>
+  </si>
+  <si>
+    <t>Evolutie geeft het niveau van standaardisering van een component weer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoe meer gestandaardiseerd, hoe meer een component kan worden beschouwd als "produkt", of "commodity". </t>
+  </si>
+  <si>
+    <t>Bubbels</t>
+  </si>
+  <si>
+    <t>De bubbels op de map vertegenwoordigen componenten.</t>
+  </si>
+  <si>
+    <t>Componenten kunnen van alles zijn, maar meestal zijn dit diensten, produkten en systemen in een IT landschap.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De grootte van een bubbel geeft volume, gebruik of bedrag weer. </t>
+  </si>
+  <si>
+    <t>Een voorbeeld: een bedrijf wordt geboren.</t>
+  </si>
+  <si>
+    <t>Aan de linkerkant wordt stadium 0 van bedrijf X weergegeven.</t>
+  </si>
+  <si>
+    <t>In dit stadium maakt het bedrijf dashboards voor klanten.</t>
+  </si>
+  <si>
+    <t>Daarvoor wordt een cloud BI dienst gebruikt (Power BI).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dashboards zijn zichtbaar voor klanten en zijn daarom hoog op de waardeketen dimensie afgebeeld. </t>
+  </si>
+  <si>
+    <t>Gebruik de knoppen bovenaan in het scherm om te navigeren tussen stadia.</t>
+  </si>
+  <si>
+    <t>Succes!</t>
+  </si>
+  <si>
+    <t>Het bedrijf groeit: meer en meer klanten willen een dashboard laten bouwen.</t>
+  </si>
+  <si>
+    <t>Verschillende typen dashboards worden gemaakt voor verschillende klanten</t>
+  </si>
+  <si>
+    <t>Eerste problemen.</t>
+  </si>
+  <si>
+    <t>Het bedrijf blijft groeien, maar er ontstaan problemen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Met de bestaande capaciteit kan niet meer worden voldaan aan de vraag. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menskracht is beperkt, er is veel variatie en geen standaarden. </t>
+  </si>
+  <si>
+    <t>Bedrijf X zal moeten ingrijpen.</t>
+  </si>
+  <si>
+    <t>Actie!</t>
+  </si>
+  <si>
+    <t>X grijpt in en besluit meer standaardisering toe te gaan passen om het bouw-proces efficiënter te maken.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Het resultaat van deze ingreep is dat de dashboards meer gaan lijken op een standaard produkt. </t>
+  </si>
+  <si>
+    <t>Je ziet daarom het dashboard component naar rechts opschuiven.</t>
+  </si>
+  <si>
+    <t>Opnieuw succes!</t>
+  </si>
+  <si>
+    <t>Dataplatform diensten zijn een enorm succes voor bedrijf X. Veel klanten willen naar de cloud.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voor sommige klanten is dit de enige dienst die X levert. </t>
+  </si>
+  <si>
+    <t>Nog meer actie.</t>
+  </si>
+  <si>
+    <t>De ervaringen met de ontwikkeling van dashboards in de hand</t>
+  </si>
+  <si>
+    <t>bedrijf X besluit om onderdelen van het data platform vanaf het begin te standaardiseren.</t>
+  </si>
+  <si>
+    <t>De data platform component schuift daarmee op naar rechts: het begint meer op een produkt te lijken.</t>
+  </si>
+  <si>
+    <t>Datakwaliteit</t>
+  </si>
+  <si>
+    <t>Een klant geeft aan blij te zijn met de dashboards, maar de data kwaliteit is onvoldoende..</t>
+  </si>
+  <si>
+    <t>X komt overeen met de klant om een data kwaliteitssysteem op te leveren.</t>
+  </si>
+  <si>
+    <t>Data wordt geautomatiseerd gevalideerd, resultaten worden op het data platform opgeslagen.</t>
+  </si>
+  <si>
+    <t>Een nieuwe datakwaliteit dashboard wordt ook opgeleverd.</t>
+  </si>
+  <si>
+    <t>In dit stadium gebeuren meerdere dingen.</t>
+  </si>
+  <si>
+    <t>Bedrijf X krijgt te maken met een toenemende vraag om datakwaliteit oplossingen.</t>
+  </si>
+  <si>
+    <t>Dashboards zijn links op de evolutie dimensie afgebeeld, omdat ze voor iedere nieuwe klant opnieuw worden gebouwd.</t>
+  </si>
+  <si>
+    <t>Op hetzelfde moment begint X met het leveren van dataplatforms aan klanten te leveren, gebruik makend van cloud diensten.</t>
+  </si>
+  <si>
+    <t>Tegelijkertijd onstaat ook vraag vanuit de markt voor andere data management functionaliteiten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zo vragen klanten bijvoorbeeld om een business glossary oplossing aan bedrijf X, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">om context en betekenis te geven voor data gebruikers. Dit is nieuw voor bedrijf X, </t>
+  </si>
+  <si>
+    <t>maar omdat trends in de markt aangeven dat hier veel behoefte voor is besluit het om business glossary diensten toe te voegen aan haar portfolio.</t>
+  </si>
+  <si>
+    <t>Ook Master Data diensten worden aan het portfolio toegevoegd.</t>
+  </si>
+  <si>
+    <t>De nieuwe diensten genereren extra omzet, ook voor dashboarding diensten, waar het allemaal mee begon.</t>
+  </si>
+  <si>
+    <t>X heeft zich ontwikkeld van een dashboarding specialist naar een volwaardig data bedrijf.</t>
+  </si>
+  <si>
+    <t>Wat als?</t>
+  </si>
+  <si>
+    <t>What als de dienstverlening van bedrijf niet was geanalyseerd vanuit het perspectief van de klant?</t>
+  </si>
+  <si>
+    <t>Wat als bedrijf X geen nieuwe diensten aan het portfolio zou hebben toegevoegd.</t>
+  </si>
+  <si>
+    <t>Wat als trends in de markt niet zouden zijn gevolgd en geanalyseerd?</t>
+  </si>
+  <si>
+    <t>Wat als Wardley grafieken niet zouden bestaan?</t>
+  </si>
+  <si>
+    <t>Zou X nu dan nog bestaan?</t>
+  </si>
+  <si>
+    <t>Afsluitend</t>
+  </si>
+  <si>
+    <t>Wardley grafieken kunnen waardevolle inzichten verschaffen, zoals in dit artikel is beschreven.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tegelijkertijd kent deze diagram tekortkomingen: teveel componenten leidt ertoe dat het diagram niet meer leesbaar is. </t>
+  </si>
+  <si>
+    <t>Ik hoop dat dit artikel inzicht verschaft heeft in Wardley diagrammen.</t>
+  </si>
+  <si>
+    <t>Wardley Diagrammen</t>
+  </si>
+  <si>
+    <t>Het doel van deze pagina is om Wardley diagrammen uit te leggen aan de hand van een voorbeeld.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Een Wardley diagram is een management tool om strategische </t>
+  </si>
+  <si>
+    <t>Opnieuw wordt standaardisering toegepast.</t>
   </si>
 </sst>
 </file>
@@ -471,7 +690,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -499,11 +718,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFF1A983"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -516,11 +744,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="31">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -666,34 +900,34 @@
     <sortCondition ref="D1:D19"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="29">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="30">
       <calculatedColumnFormula>Nodes[[#This Row],[Name]]&amp;"#"&amp;Nodes[[#This Row],[Stage]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{04C99B56-DDC0-AB43-97CF-F5F68763ED3C}" name="Name" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{66AC0B69-00DD-3940-91B2-403582E95E7F}" name="Map" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{A8F9450A-7335-F64C-B3F9-AEB0D5D02F10}" name="Stage" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{04C99B56-DDC0-AB43-97CF-F5F68763ED3C}" name="Name" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{66AC0B69-00DD-3940-91B2-403582E95E7F}" name="Map" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{A8F9450A-7335-F64C-B3F9-AEB0D5D02F10}" name="Stage" dataDxfId="27"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NodeType"/>
     <tableColumn id="7" xr3:uid="{E521FED1-16C4-5141-9A00-6B13A78E8E3B}" name="Existing"/>
     <tableColumn id="9" xr3:uid="{963D7E86-27DC-F442-94D4-70E2B264AF27}" name="Description"/>
-    <tableColumn id="8" xr3:uid="{A63AF2BC-A48D-DD40-BF34-F4F84DB587ED}" name="Size" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{A63AF2BC-A48D-DD40-BF34-F4F84DB587ED}" name="Size" dataDxfId="26"/>
     <tableColumn id="3" xr3:uid="{14BBD394-C957-314A-8D27-79C1645F0439}" name="Visibility"/>
     <tableColumn id="4" xr3:uid="{83200B6D-CF9A-4B49-AD01-A930BD21121B}" name="Evolution"/>
-    <tableColumn id="11" xr3:uid="{FDC1EA3B-18CD-2C4D-9422-9AD83846BEEE}" name="SizePrev" dataDxfId="24">
+    <tableColumn id="11" xr3:uid="{FDC1EA3B-18CD-2C4D-9422-9AD83846BEEE}" name="SizePrev" dataDxfId="25">
       <calculatedColumnFormula>VLOOKUP(Nodes[[#This Row],[Name]]&amp;"#"&amp;Nodes[[#This Row],[Stage]]-1,Nodes[],COLUMN(Nodes[[#Headers],[Size]]),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{10F57D20-666F-D849-A9EE-DC43E8A3189A}" name="VisibilityPrev" dataDxfId="23">
+    <tableColumn id="12" xr3:uid="{10F57D20-666F-D849-A9EE-DC43E8A3189A}" name="VisibilityPrev" dataDxfId="24">
       <calculatedColumnFormula>VLOOKUP(Nodes[[#This Row],[Name]]&amp;"#"&amp;Nodes[[#This Row],[Stage]]-1,Nodes[],COLUMN(Nodes[[#Headers],[Visibility]]),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{A6E77978-1158-0E49-8F2C-E0F537102CEE}" name="EvolutionPrev" dataDxfId="22">
+    <tableColumn id="13" xr3:uid="{A6E77978-1158-0E49-8F2C-E0F537102CEE}" name="EvolutionPrev" dataDxfId="23">
       <calculatedColumnFormula>VLOOKUP(Nodes[[#This Row],[Name]]&amp;"#"&amp;Nodes[[#This Row],[Stage]]-1,Nodes[],COLUMN(Nodes[[#Headers],[Evolution]]),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{45B5FFA1-DF81-FF45-BC66-F4F6E870CC76}" name="SizeNext" dataDxfId="21">
+    <tableColumn id="14" xr3:uid="{45B5FFA1-DF81-FF45-BC66-F4F6E870CC76}" name="SizeNext" dataDxfId="22">
       <calculatedColumnFormula>VLOOKUP(Nodes[[#This Row],[Name]]&amp;"#"&amp;Nodes[[#This Row],[Stage]]+1,Nodes[],COLUMN(Nodes[[#Headers],[Size]]),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{B8AEBBA3-A1E7-604D-907A-0006CDEC738C}" name="VisibilityNext" dataDxfId="20">
+    <tableColumn id="15" xr3:uid="{B8AEBBA3-A1E7-604D-907A-0006CDEC738C}" name="VisibilityNext" dataDxfId="21">
       <calculatedColumnFormula>VLOOKUP(Nodes[[#This Row],[Name]]&amp;"#"&amp;Nodes[[#This Row],[Stage]]+1,Nodes[],COLUMN(Nodes[[#Headers],[Visibility]]),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{4C03C27B-7462-F74F-9A24-5082A79C79F2}" name="EvolutionNext" dataDxfId="19">
+    <tableColumn id="16" xr3:uid="{4C03C27B-7462-F74F-9A24-5082A79C79F2}" name="EvolutionNext" dataDxfId="20">
       <calculatedColumnFormula>VLOOKUP(Nodes[[#This Row],[Name]]&amp;"#"&amp;Nodes[[#This Row],[Stage]]+1,Nodes[],COLUMN(Nodes[[#Headers],[Evolution]]),FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -702,14 +936,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:S60" totalsRowShown="0" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:S60" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="A1:S60" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:K2">
     <sortCondition ref="E2"/>
     <sortCondition descending="1" ref="H2"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="11" xr3:uid="{0045E26B-1D25-A042-8847-E2F6D81003B7}" name="Name" dataDxfId="17">
+    <tableColumn id="11" xr3:uid="{0045E26B-1D25-A042-8847-E2F6D81003B7}" name="Name" dataDxfId="18">
       <calculatedColumnFormula>Table2[[#This Row],[Source]]&amp;"#"&amp;Table2[[#This Row],[Target]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Source"/>
@@ -717,43 +951,43 @@
     <tableColumn id="8" xr3:uid="{C01FA1C9-E655-4142-980A-73713077BAF3}" name="Map"/>
     <tableColumn id="9" xr3:uid="{96EFDA83-A400-1E41-9977-994CA6BD8AAF}" name="Stage"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Descr"/>
-    <tableColumn id="10" xr3:uid="{EA2D0063-DB8B-8F45-988A-665E38F0AB53}" name="Size" dataDxfId="16">
+    <tableColumn id="10" xr3:uid="{EA2D0063-DB8B-8F45-988A-665E38F0AB53}" name="Size" dataDxfId="17">
       <calculatedColumnFormula>VLOOKUP(Table2[[#This Row],[Source]]&amp;"#"&amp;Table2[[#This Row],[Stage]],Nodes[],COLUMN(Nodes[[#Headers],[Size]]),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1BE4C523-A5B1-E842-B91F-2811B8747E6A}" name="SourceVisibility" dataDxfId="15">
+    <tableColumn id="4" xr3:uid="{1BE4C523-A5B1-E842-B91F-2811B8747E6A}" name="SourceVisibility" dataDxfId="16">
       <calculatedColumnFormula>VLOOKUP(Table2[[#This Row],[Source]]&amp;"#"&amp;Table2[[#This Row],[Stage]],Nodes[],COLUMN(Nodes[[#Headers],[Visibility]]),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{CDDD3A7B-946F-5340-9CB6-F295C0C38468}" name="SourceEvolution" dataDxfId="14">
+    <tableColumn id="5" xr3:uid="{CDDD3A7B-946F-5340-9CB6-F295C0C38468}" name="SourceEvolution" dataDxfId="15">
       <calculatedColumnFormula>VLOOKUP(Table2[[#This Row],[Source]]&amp;"#"&amp;Table2[[#This Row],[Stage]],Nodes[],COLUMN(Nodes[[#Headers],[Evolution]]),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B71B27D4-4CE4-D34B-8A10-7B9E3C21A847}" name="TargetVisibility" dataDxfId="13">
+    <tableColumn id="6" xr3:uid="{B71B27D4-4CE4-D34B-8A10-7B9E3C21A847}" name="TargetVisibility" dataDxfId="14">
       <calculatedColumnFormula>VLOOKUP(Table2[[#This Row],[Target]]&amp;"#"&amp;Table2[[#This Row],[Stage]],Nodes[],COLUMN(Nodes[[#Headers],[Visibility]]),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B6D332A3-7020-8541-BB26-D50C64C67330}" name="TargetEvolution" dataDxfId="12">
+    <tableColumn id="7" xr3:uid="{B6D332A3-7020-8541-BB26-D50C64C67330}" name="TargetEvolution" dataDxfId="13">
       <calculatedColumnFormula>VLOOKUP(Table2[[#This Row],[Target]]&amp;"#"&amp;Table2[[#This Row],[Stage]],Nodes[],COLUMN(Nodes[[#Headers],[Evolution]]),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{069F9D99-C231-3843-99A1-269ADA6F411C}" name="SourceVisibilityPrev" dataDxfId="11">
+    <tableColumn id="13" xr3:uid="{069F9D99-C231-3843-99A1-269ADA6F411C}" name="SourceVisibilityPrev" dataDxfId="12">
       <calculatedColumnFormula>VLOOKUP(Table2[[#This Row],[Source]]&amp;"#"&amp;Table2[[#This Row],[Stage]]-1,Nodes[],COLUMN(Nodes[[#Headers],[Visibility]]),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{04D7421D-DEA0-C94B-9E9F-288792819D7E}" name="SourceEvolutionPrev" dataDxfId="10">
+    <tableColumn id="14" xr3:uid="{04D7421D-DEA0-C94B-9E9F-288792819D7E}" name="SourceEvolutionPrev" dataDxfId="11">
       <calculatedColumnFormula>VLOOKUP(Table2[[#This Row],[Source]]&amp;"#"&amp;Table2[[#This Row],[Stage]]-1,Nodes[],COLUMN(Nodes[[#Headers],[Evolution]]),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{69977B39-CE04-1A49-B0E3-A59616F3ADEB}" name="TargetVisibilityPrev" dataDxfId="9">
+    <tableColumn id="16" xr3:uid="{69977B39-CE04-1A49-B0E3-A59616F3ADEB}" name="TargetVisibilityPrev" dataDxfId="10">
       <calculatedColumnFormula>VLOOKUP(Table2[[#This Row],[Target]]&amp;"#"&amp;Table2[[#This Row],[Stage]]-1,Nodes[],COLUMN(Nodes[[#Headers],[Visibility]]),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{8717BEDB-2946-5A48-9440-00782967AEEF}" name="TargetEvolutionPrev" dataDxfId="8">
+    <tableColumn id="17" xr3:uid="{8717BEDB-2946-5A48-9440-00782967AEEF}" name="TargetEvolutionPrev" dataDxfId="9">
       <calculatedColumnFormula>VLOOKUP(Table2[[#This Row],[Target]]&amp;"#"&amp;Table2[[#This Row],[Stage]]-1,Nodes[],COLUMN(Nodes[[#Headers],[Evolution]]),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{DA6E4E6D-B98A-994A-B820-D71746ED5A9A}" name="SourceVisibilityNext" dataDxfId="7">
+    <tableColumn id="19" xr3:uid="{DA6E4E6D-B98A-994A-B820-D71746ED5A9A}" name="SourceVisibilityNext" dataDxfId="8">
       <calculatedColumnFormula>VLOOKUP(Table2[[#This Row],[Source]]&amp;"#"&amp;Table2[[#This Row],[Stage]]+1,Nodes[],COLUMN(Nodes[[#Headers],[Visibility]]),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{63412AD7-9743-374B-893E-B821EC3E7479}" name="SourceEvolutionNext" dataDxfId="6">
+    <tableColumn id="20" xr3:uid="{63412AD7-9743-374B-893E-B821EC3E7479}" name="SourceEvolutionNext" dataDxfId="7">
       <calculatedColumnFormula>VLOOKUP(Table2[[#This Row],[Source]]&amp;"#"&amp;Table2[[#This Row],[Stage]]+1,Nodes[],COLUMN(Nodes[[#Headers],[Evolution]]),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{024CECAE-B2A8-D944-A7F2-1370765CD52C}" name="TargetVisibilityNext" dataDxfId="5">
+    <tableColumn id="22" xr3:uid="{024CECAE-B2A8-D944-A7F2-1370765CD52C}" name="TargetVisibilityNext" dataDxfId="6">
       <calculatedColumnFormula>VLOOKUP(Table2[[#This Row],[Target]]&amp;"#"&amp;Table2[[#This Row],[Stage]]+1,Nodes[],COLUMN(Nodes[[#Headers],[Visibility]]),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{1C26C160-1158-C84F-8FD4-63A8F8CAE2D2}" name="TargetEvolutionNext" dataDxfId="4">
+    <tableColumn id="23" xr3:uid="{1C26C160-1158-C84F-8FD4-63A8F8CAE2D2}" name="TargetEvolutionNext" dataDxfId="5">
       <calculatedColumnFormula>VLOOKUP(Table2[[#This Row],[Target]]&amp;"#"&amp;Table2[[#This Row],[Stage]]+1,Nodes[],COLUMN(Nodes[[#Headers],[Evolution]]),FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -762,17 +996,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3C155BBD-27DE-8343-9B45-6618B7DA0E2E}" name="SizeStoryLine5" displayName="SizeStoryLine5" ref="A1:E78" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:E78" xr:uid="{7DAE4758-E1A9-AF44-A3C3-6A97CD7BF661}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E39">
-    <sortCondition ref="A1:A39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3C155BBD-27DE-8343-9B45-6618B7DA0E2E}" name="SizeStoryLine5" displayName="SizeStoryLine5" ref="A1:F80" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A1:F80" xr:uid="{7DAE4758-E1A9-AF44-A3C3-6A97CD7BF661}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E41">
+    <sortCondition ref="A1:A41"/>
   </sortState>
-  <tableColumns count="5">
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{6587A00A-9AC1-B348-A219-DE89A7B736AC}" name="Stage"/>
     <tableColumn id="5" xr3:uid="{53996EBE-3705-5A40-8030-172423F9FEB9}" name="Paragraph"/>
     <tableColumn id="3" xr3:uid="{69CEA615-F0A0-264C-8915-28028F9AB8F4}" name="Sort"/>
     <tableColumn id="4" xr3:uid="{E779D84C-7EFC-ED4B-9D92-986C03897A79}" name="LineType"/>
-    <tableColumn id="2" xr3:uid="{A6133168-DFD3-4245-B349-791B08945545}" name="StoryLine" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{A6133168-DFD3-4245-B349-791B08945545}" name="StoryLine_en" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{CFEA4846-4153-4A44-A477-C5287657705E}" name="StoryLine_nl" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3119,7 +3354,7 @@
         <v>Business Glossary#6</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>5</v>
@@ -3170,7 +3405,7 @@
         <v>Master Data Management#6</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>5</v>
@@ -3585,7 +3820,7 @@
         <v>Business Glossary#7</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>5</v>
@@ -3636,7 +3871,7 @@
         <v>Master Data Management#7</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>5</v>
@@ -6794,7 +7029,7 @@
         <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
@@ -6864,7 +7099,7 @@
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D46" t="s">
         <v>5</v>
@@ -6934,7 +7169,7 @@
         <v>24</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
@@ -7004,7 +7239,7 @@
         <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
@@ -7634,7 +7869,7 @@
         <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D57" t="s">
         <v>5</v>
@@ -7704,7 +7939,7 @@
         <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D58" t="s">
         <v>5</v>
@@ -7774,7 +8009,7 @@
         <v>24</v>
       </c>
       <c r="C59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
@@ -7844,7 +8079,7 @@
         <v>24</v>
       </c>
       <c r="C60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D60" t="s">
         <v>5</v>
@@ -7922,40 +8157,44 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032BEC8D-92E5-1C4E-91F5-7838C9135E4A}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="89.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36" style="1" customWidth="1"/>
+    <col min="6" max="6" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7966,13 +8205,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="F2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -7983,13 +8225,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -8000,13 +8245,16 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -8017,13 +8265,16 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -8034,30 +8285,36 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
         <v>66</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -8065,16 +8322,19 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -8082,16 +8342,19 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -8099,50 +8362,59 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
         <v>66</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
@@ -8150,16 +8422,19 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
@@ -8167,16 +8442,19 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
         <v>66</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
@@ -8187,13 +8465,16 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
@@ -8204,13 +8485,16 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
@@ -8221,47 +8505,56 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
         <v>66</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0</v>
       </c>
@@ -8269,16 +8562,19 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0</v>
       </c>
@@ -8286,16 +8582,19 @@
         <v>4</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0</v>
       </c>
@@ -8303,16 +8602,19 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0</v>
       </c>
@@ -8323,13 +8625,16 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0</v>
       </c>
@@ -8337,13 +8642,19 @@
         <v>4</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0</v>
       </c>
@@ -8351,50 +8662,54 @@
         <v>4</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F25" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -8402,47 +8717,59 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
         <v>66</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
         <v>2</v>
       </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
+      <c r="D30" t="s">
+        <v>66</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -8450,13 +8777,19 @@
         <v>2</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>65</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2</v>
       </c>
@@ -8464,13 +8797,16 @@
         <v>2</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2</v>
       </c>
@@ -8478,44 +8814,50 @@
         <v>2</v>
       </c>
       <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
         <v>4</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>3</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>3</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3</v>
       </c>
@@ -8523,13 +8865,19 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>65</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3</v>
       </c>
@@ -8537,75 +8885,87 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3</v>
       </c>
       <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
         <v>2</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38" t="s">
-        <v>66</v>
-      </c>
       <c r="E38" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3</v>
       </c>
       <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
         <v>2</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>4</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4</v>
       </c>
@@ -8613,47 +8973,53 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>65</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>4</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43" t="s">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>4</v>
       </c>
       <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
         <v>2</v>
       </c>
-      <c r="C44">
-        <v>3</v>
-      </c>
-      <c r="D44" t="s">
-        <v>67</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4</v>
       </c>
@@ -8661,16 +9027,19 @@
         <v>2</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F45" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>4</v>
       </c>
@@ -8678,50 +9047,59 @@
         <v>2</v>
       </c>
       <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>4</v>
       </c>
-      <c r="D46" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>5</v>
-      </c>
       <c r="B47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D47" t="s">
         <v>66</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>5</v>
       </c>
@@ -8729,16 +9107,19 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>5</v>
       </c>
@@ -8746,16 +9127,19 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>5</v>
       </c>
@@ -8763,50 +9147,59 @@
         <v>1</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D52" t="s">
         <v>66</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>6</v>
       </c>
@@ -8814,16 +9207,19 @@
         <v>1</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>6</v>
       </c>
@@ -8831,16 +9227,19 @@
         <v>1</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>6</v>
       </c>
@@ -8848,50 +9247,59 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>6</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D57" t="s">
         <v>66</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>6</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>6</v>
       </c>
@@ -8899,16 +9307,19 @@
         <v>2</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>6</v>
       </c>
@@ -8916,84 +9327,99 @@
         <v>2</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>6</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D61" t="s">
         <v>66</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>6</v>
       </c>
       <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
         <v>3</v>
       </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
       <c r="D62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>7</v>
       </c>
@@ -9001,67 +9427,79 @@
         <v>1</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>7</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" t="s">
         <v>66</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>7</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>7</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>7</v>
       </c>
@@ -9069,16 +9507,19 @@
         <v>3</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>7</v>
       </c>
@@ -9086,16 +9527,19 @@
         <v>3</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>7</v>
       </c>
@@ -9103,50 +9547,59 @@
         <v>3</v>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>7</v>
       </c>
       <c r="B72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D72" t="s">
         <v>66</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>7</v>
       </c>
       <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73">
         <v>4</v>
       </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
       <c r="D73" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>7</v>
       </c>
@@ -9154,16 +9607,19 @@
         <v>4</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>7</v>
       </c>
@@ -9171,13 +9627,19 @@
         <v>4</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>7</v>
       </c>
@@ -9185,16 +9647,19 @@
         <v>4</v>
       </c>
       <c r="C76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>7</v>
       </c>
@@ -9202,16 +9667,14 @@
         <v>4</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>67</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>7</v>
       </c>
@@ -9222,10 +9685,51 @@
         <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>7</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79" t="s">
+        <v>66</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>7</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80" t="s">
+        <v>66</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
